--- a/WorkSubmissions01/Participant_38957_assignsubmission_file/submission_info.xlsx
+++ b/WorkSubmissions01/Participant_38957_assignsubmission_file/submission_info.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Submission Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,32 +27,17 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <b val="1"/>
-    </font>
-    <font>
-      <color rgb="000563C1"/>
-      <u val="single"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="004472C4"/>
-        <bgColor rgb="004472C4"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,23 +45,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,15 +428,10 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="60" customWidth="1" min="2" max="2"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -469,93 +446,88 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Participant ID</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>38957</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Group Code</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>ron_itamar</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Student 1</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>ID 312544240</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Student 2</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>ID 205949985</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>GitHub Repository</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>https://github.com/RonKozitsa/LLM_course/tree/main/ollamachatbot-angular</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Suggested Grade</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
+      <c r="B7" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>PDF Filename</t>
         </is>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>submission_form.pdf</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B6" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>